--- a/tests/snow_test.xlsx
+++ b/tests/snow_test.xlsx
@@ -326,7 +326,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,14 +444,8 @@
       <c r="A15" s="2"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="C17" s="1"/>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
